--- a/Input/CountryCodes.xlsx
+++ b/Input/CountryCodes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastien/Documents/SakanaCloud/Travail_R/MPA_work/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastien/Documents/SakanaCloud/Travail_R/Cinea_MPA/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0044649D-74ED-984F-A637-92494CEF1D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4E5151-EEB7-C942-9D11-E3C11F5EDF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FDBF533D-0B83-6B44-8628-7BD1E1ADD058}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,9 +943,6 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
       <c r="D29">
         <v>2</v>
       </c>
